--- a/Potable Water Meter Forecast/Intern-Potable_Water_Meter_Forecast_Data.xlsx
+++ b/Potable Water Meter Forecast/Intern-Potable_Water_Meter_Forecast_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pascocountyfl-my.sharepoint.com/personal/dburgoscalderon_pascocountyfl_net/Documents/Desktop/Pasco-Utilities-Internship-2025/Potable Water Meter Forecast/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104830691961A05ADE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E660FA6-6777-4695-BF4C-66867F4F1EAE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Potable Water Meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data From EAM server on New Water Meters Installed </t>
+  </si>
+  <si>
+    <t>By Fiscal Year (10/1-9/30)</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>10/1/2020-9/30/2021</t>
+  </si>
+  <si>
+    <t>10/1/2021-9/30/2022</t>
+  </si>
+  <si>
+    <t>10/1/2022-9/30/2023</t>
+  </si>
+  <si>
+    <t>10/1/2023-9/30/2024</t>
+  </si>
+  <si>
+    <t>By Caldendar Year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +69,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +98,300 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +402,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A4F84E4-4DEE-4CDD-A3E7-A9B9EED2219B}" name="Table1" displayName="Table1" ref="G2:I6" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="G2:I6" xr:uid="{0A4F84E4-4DEE-4CDD-A3E7-A9B9EED2219B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{91006D9A-C0BB-4739-8C17-A0510037F85D}" name="Dates" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A14B6445-0C8B-4412-9730-0E2E2902DE26}" name="Year" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{41A2CE4D-424A-495B-8152-C14B4AE33203}" name="Potable Water Meters" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC861A46-6FC8-4304-9E6C-19777C92D041}" name="Table2" displayName="Table2" ref="L2:M6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="L2:M6" xr:uid="{FC861A46-6FC8-4304-9E6C-19777C92D041}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4AF814E7-6C8C-4628-BF12-A5FC44544966}" name="Year" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7CC78EC3-399C-45F1-9BA7-9201583611A7}" name="Potable Water Meters" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +689,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5768</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5482</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6194</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2023</v>
+      </c>
+      <c r="M5" s="8">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="I6" s="13">
+        <v>7276</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2024</v>
+      </c>
+      <c r="M6" s="13">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>